--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.455159666666667</v>
+        <v>0.5110453333333334</v>
       </c>
       <c r="H2">
-        <v>10.365479</v>
+        <v>1.533136</v>
       </c>
       <c r="I2">
-        <v>0.5572698255371761</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="J2">
-        <v>0.557269825537176</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N2">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q2">
-        <v>0.2636240756871111</v>
+        <v>0.01353435425955556</v>
       </c>
       <c r="R2">
-        <v>2.372616681184</v>
+        <v>0.121809188336</v>
       </c>
       <c r="S2">
-        <v>0.00228973754023915</v>
+        <v>0.0002244489004831264</v>
       </c>
       <c r="T2">
-        <v>0.00228973754023915</v>
+        <v>0.0002244489004831265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.455159666666667</v>
+        <v>0.5110453333333334</v>
       </c>
       <c r="H3">
-        <v>10.365479</v>
+        <v>1.533136</v>
       </c>
       <c r="I3">
-        <v>0.5572698255371761</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="J3">
-        <v>0.557269825537176</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.984044</v>
       </c>
       <c r="O3">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P3">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q3">
-        <v>44.89869882411956</v>
+        <v>6.640871253553778</v>
       </c>
       <c r="R3">
-        <v>404.088289417076</v>
+        <v>59.767841281984</v>
       </c>
       <c r="S3">
-        <v>0.3899728654809818</v>
+        <v>0.110129838670197</v>
       </c>
       <c r="T3">
-        <v>0.3899728654809818</v>
+        <v>0.110129838670197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.455159666666667</v>
+        <v>0.5110453333333334</v>
       </c>
       <c r="H4">
-        <v>10.365479</v>
+        <v>1.533136</v>
       </c>
       <c r="I4">
-        <v>0.5572698255371761</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="J4">
-        <v>0.557269825537176</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.495119</v>
       </c>
       <c r="O4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q4">
-        <v>18.997756621889</v>
+        <v>2.809917862576</v>
       </c>
       <c r="R4">
-        <v>170.979809597001</v>
+        <v>25.289260763184</v>
       </c>
       <c r="S4">
-        <v>0.1650072225159552</v>
+        <v>0.04659867494289974</v>
       </c>
       <c r="T4">
-        <v>0.1650072225159551</v>
+        <v>0.04659867494289975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1.884975666666667</v>
       </c>
       <c r="H5">
-        <v>5.654927000000001</v>
+        <v>5.654927</v>
       </c>
       <c r="I5">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="J5">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N5">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q5">
-        <v>0.1438211300657778</v>
+        <v>0.04992106723077777</v>
       </c>
       <c r="R5">
-        <v>1.294390170592</v>
+        <v>0.4492896050769999</v>
       </c>
       <c r="S5">
-        <v>0.001249175135969303</v>
+        <v>0.0008278731615866724</v>
       </c>
       <c r="T5">
-        <v>0.001249175135969303</v>
+        <v>0.0008278731615866726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1.884975666666667</v>
       </c>
       <c r="H6">
-        <v>5.654927000000001</v>
+        <v>5.654927</v>
       </c>
       <c r="I6">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="J6">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>38.984044</v>
       </c>
       <c r="O6">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P6">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q6">
         <v>24.49465810942089</v>
@@ -818,10 +818,10 @@
         <v>220.451922984788</v>
       </c>
       <c r="S6">
-        <v>0.2127511990787663</v>
+        <v>0.4062106676783672</v>
       </c>
       <c r="T6">
-        <v>0.2127511990787664</v>
+        <v>0.4062106676783672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1.884975666666667</v>
       </c>
       <c r="H7">
-        <v>5.654927000000001</v>
+        <v>5.654927</v>
       </c>
       <c r="I7">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="J7">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>16.495119</v>
       </c>
       <c r="O7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q7">
         <v>10.364299311257</v>
       </c>
       <c r="R7">
-        <v>93.27869380131301</v>
+        <v>93.278693801313</v>
       </c>
       <c r="S7">
-        <v>0.09002032591069672</v>
+        <v>0.1718778406474228</v>
       </c>
       <c r="T7">
-        <v>0.09002032591069672</v>
+        <v>0.1718778406474228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8600203333333333</v>
+        <v>0.8600203333333334</v>
       </c>
       <c r="H8">
         <v>2.580061</v>
       </c>
       <c r="I8">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990434</v>
       </c>
       <c r="J8">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990435</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N8">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O8">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P8">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q8">
-        <v>0.06561840473955555</v>
+        <v>0.02277649183455556</v>
       </c>
       <c r="R8">
-        <v>0.5905656426559999</v>
+        <v>0.204988426511</v>
       </c>
       <c r="S8">
-        <v>0.0005699362786617929</v>
+        <v>0.0003777172114081175</v>
       </c>
       <c r="T8">
-        <v>0.0005699362786617928</v>
+        <v>0.0003777172114081176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8600203333333333</v>
+        <v>0.8600203333333334</v>
       </c>
       <c r="H9">
         <v>2.580061</v>
       </c>
       <c r="I9">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990434</v>
       </c>
       <c r="J9">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>38.984044</v>
       </c>
       <c r="O9">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P9">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q9">
         <v>11.17569017185378</v>
@@ -1004,10 +1004,10 @@
         <v>100.581211546684</v>
       </c>
       <c r="S9">
-        <v>0.09706775550707568</v>
+        <v>0.1853336570853904</v>
       </c>
       <c r="T9">
-        <v>0.09706775550707566</v>
+        <v>0.1853336570853905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8600203333333333</v>
+        <v>0.8600203333333334</v>
       </c>
       <c r="H10">
         <v>2.580061</v>
       </c>
       <c r="I10">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990434</v>
       </c>
       <c r="J10">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>16.495119</v>
       </c>
       <c r="O10">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P10">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q10">
         <v>4.728712580251</v>
       </c>
       <c r="R10">
-        <v>42.55841322225899</v>
+        <v>42.558413222259</v>
       </c>
       <c r="S10">
-        <v>0.04107178255165417</v>
+        <v>0.07841928170224485</v>
       </c>
       <c r="T10">
-        <v>0.04107178255165417</v>
+        <v>0.07841928170224488</v>
       </c>
     </row>
   </sheetData>
